--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/D/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/D/15/seed2/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.061999999999997</v>
+        <v>-6.277799999999997</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.732899999999997</v>
+        <v>-8.146400000000002</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.497999999999995</v>
+        <v>-7.766099999999999</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -828,7 +828,7 @@
         <v>-10.59</v>
       </c>
       <c r="D23" t="n">
-        <v>-6.651599999999994</v>
+        <v>-6.762399999999993</v>
       </c>
       <c r="E23" t="n">
         <v>10.67</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.197199999999999</v>
+        <v>-8.394499999999999</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
